--- a/data/exampleStochastic/Power_Network.xlsx
+++ b/data/exampleStochastic/Power_Network.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\exampleStochastic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597FC3C0-98E1-4755-9DF7-E0FB7125DFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F92F19-7763-4597-85E5-D10D8DE0ABC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32565" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34230" yWindow="-21705" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenarioA" sheetId="1" r:id="rId1"/>
     <sheet name="ScenarioB" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -209,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="88">
   <si>
     <t>Power - Network</t>
   </si>
@@ -2657,9 +2670,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="12" t="s">
         <v>82</v>
@@ -2763,9 +2774,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="12" t="s">
         <v>75</v>
@@ -2816,9 +2825,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="12" t="s">
         <v>85</v>
@@ -2869,9 +2876,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="12" t="s">
         <v>86</v>

--- a/data/exampleStochastic/Power_Network.xlsx
+++ b/data/exampleStochastic/Power_Network.xlsx
@@ -594,7 +594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00008080"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1626,11 +1626,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="10" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A15" s="10" t="n"/>
       <c r="B15" s="11" t="n">
         <v/>
       </c>
@@ -1768,11 +1764,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="10" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A17" s="10" t="n"/>
       <c r="B17" s="11" t="n">
         <v/>
       </c>
@@ -1841,11 +1833,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="10" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A18" s="10" t="n"/>
       <c r="B18" s="11" t="n">
         <v/>
       </c>
@@ -1914,11 +1902,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="10" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A19" s="10" t="n"/>
       <c r="B19" s="11" t="n">
         <v/>
       </c>
@@ -2057,12 +2041,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00008080"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3270,7 +3254,7 @@
         <v>175</v>
       </c>
       <c r="L17" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="16" t="n">
         <v/>
@@ -3339,7 +3323,7 @@
         <v>175</v>
       </c>
       <c r="L18" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="16" t="n">
         <v/>
@@ -3408,7 +3392,7 @@
         <v>175</v>
       </c>
       <c r="L19" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="16" t="n">
         <v/>
@@ -3509,6 +3493,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
--- a/data/exampleStochastic/Power_Network.xlsx
+++ b/data/exampleStochastic/Power_Network.xlsx
@@ -632,7 +632,7 @@
     <col width="24.5709375" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="24" customHeight="1">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="2" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
     <col width="24.5709375" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="24" customHeight="1">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="2" t="inlineStr">
         <is>

--- a/data/exampleStochastic/Power_Network.xlsx
+++ b/data/exampleStochastic/Power_Network.xlsx
@@ -41,13 +41,13 @@
     </font>
     <font>
       <name val="Aptos"/>
-      <color rgb="000000FF"/>
+      <color rgb="FF0000FF"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="Aptos"/>
       <b val="1"/>
-      <color rgb="00FFFFFF"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="18"/>
     </font>
     <font>
@@ -64,38 +64,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00008080"/>
-        <bgColor rgb="00008080"/>
+        <fgColor rgb="FF008080"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DAEEF3"/>
-        <bgColor rgb="00DAEEF3"/>
+        <fgColor rgb="FFDAEEF3"/>
+        <bgColor rgb="FFDAEEF3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9D9D9"/>
-        <bgColor rgb="00D9D9D9"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F2F2F2"/>
-        <bgColor rgb="00F2F2F2"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B8CCE4"/>
-        <bgColor rgb="00B8CCE4"/>
+        <fgColor rgb="FFB8CCE4"/>
+        <bgColor rgb="FFB8CCE4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCFFCC"/>
-        <bgColor rgb="00CCFFCC"/>
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -594,7 +594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00008080"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -611,7 +611,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5.5709375" customWidth="1" min="1" max="1"/>
+    <col width="5.5703125" customWidth="1" min="1" max="1"/>
     <col width="19.7109375" customWidth="1" min="2" max="2"/>
     <col width="15.7109375" customWidth="1" min="3" max="3"/>
     <col width="15.7109375" customWidth="1" min="4" max="4"/>
@@ -626,10 +626,10 @@
     <col width="15.7109375" customWidth="1" min="13" max="13"/>
     <col width="17.7109375" customWidth="1" min="14" max="14"/>
     <col width="26.7109375" customWidth="1" min="15" max="15"/>
-    <col width="20.2109375" customWidth="1" min="16" max="16"/>
-    <col width="20.2109375" customWidth="1" min="17" max="17"/>
-    <col width="24.5709375" customWidth="1" min="18" max="18"/>
-    <col width="24.5709375" customWidth="1" min="19" max="19"/>
+    <col width="20.140625" customWidth="1" min="16" max="16"/>
+    <col width="20.140625" customWidth="1" min="17" max="17"/>
+    <col width="24.5703125" customWidth="1" min="18" max="18"/>
+    <col width="24.5703125" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1">
@@ -2041,12 +2041,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00008080"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2063,7 +2063,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5.5709375" customWidth="1" min="1" max="1"/>
+    <col width="5.5703125" customWidth="1" min="1" max="1"/>
     <col width="19.7109375" customWidth="1" min="2" max="2"/>
     <col width="15.7109375" customWidth="1" min="3" max="3"/>
     <col width="15.7109375" customWidth="1" min="4" max="4"/>
@@ -2078,10 +2078,10 @@
     <col width="15.7109375" customWidth="1" min="13" max="13"/>
     <col width="17.7109375" customWidth="1" min="14" max="14"/>
     <col width="26.7109375" customWidth="1" min="15" max="15"/>
-    <col width="20.2109375" customWidth="1" min="16" max="16"/>
-    <col width="20.2109375" customWidth="1" min="17" max="17"/>
-    <col width="24.5709375" customWidth="1" min="18" max="18"/>
-    <col width="24.5709375" customWidth="1" min="19" max="19"/>
+    <col width="20.140625" customWidth="1" min="16" max="16"/>
+    <col width="20.140625" customWidth="1" min="17" max="17"/>
+    <col width="24.5703125" customWidth="1" min="18" max="18"/>
+    <col width="24.5703125" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1">
@@ -3493,6 +3493,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>